--- a/IPC2024_base2010/imputacion/indprod_5_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_5_2024.xlsx
@@ -1286,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>226.9685205158533</v>
+        <v>226.9916456069929</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1384,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>269.1424527995092</v>
+        <v>269.4206958267399</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>193.1437653811685</v>
+        <v>193.1425456926959</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1412,7 +1412,7 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>135.1416510085152</v>
+        <v>135.4844706606465</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>155.6373801478958</v>
+        <v>155.7734226608688</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>157.3593641511809</v>
+        <v>157.3568264058626</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>240.9141015472239</v>
+        <v>240.9080809162002</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>150.5003156088055</v>
+        <v>150.5030444543971</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1496,7 +1496,7 @@
         <v>28</v>
       </c>
       <c r="D18">
-        <v>188.6311817628637</v>
+        <v>188.5445173241244</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>359.511200623538</v>
+        <v>359.5093492961938</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>208.4070209815853</v>
+        <v>208.3998183454929</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>293.8626984143132</v>
+        <v>293.9360938295179</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>183.1918543747132</v>
+        <v>183.1881198086847</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1566,7 +1566,7 @@
         <v>33</v>
       </c>
       <c r="D23">
-        <v>987.8505312385535</v>
+        <v>985.961282615254</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>434.3547770454306</v>
+        <v>435.8999925651004</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>514.9864271287331</v>
+        <v>515.8987542537587</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1664,7 +1664,7 @@
         <v>40</v>
       </c>
       <c r="D30">
-        <v>566.6926950103513</v>
+        <v>566.6963853982829</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1678,7 +1678,7 @@
         <v>41</v>
       </c>
       <c r="D31">
-        <v>4065.792882340961</v>
+        <v>4056.236351107285</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1734,7 +1734,7 @@
         <v>45</v>
       </c>
       <c r="D35">
-        <v>940.1299550859824</v>
+        <v>913.0585301653078</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1748,7 +1748,7 @@
         <v>46</v>
       </c>
       <c r="D36">
-        <v>673.1696916253609</v>
+        <v>671.8464145343568</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1776,7 +1776,7 @@
         <v>48</v>
       </c>
       <c r="D38">
-        <v>850.937926314069</v>
+        <v>849.5348914667478</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1790,7 +1790,7 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>715.8008909495421</v>
+        <v>705.2715082267671</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1804,7 +1804,7 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>943.9856522355047</v>
+        <v>958.4313386395582</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1832,7 +1832,7 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>588.9798104599552</v>
+        <v>589.3013009325759</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1902,7 +1902,7 @@
         <v>57</v>
       </c>
       <c r="D47">
-        <v>2905.120591908824</v>
+        <v>2897.388713099344</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1930,7 +1930,7 @@
         <v>59</v>
       </c>
       <c r="D49">
-        <v>1511.856621107362</v>
+        <v>1511.422138662282</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="D53">
-        <v>133.0972411543651</v>
+        <v>133.0975930237133</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>153.3102176385175</v>
+        <v>153.2663451924862</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2182,7 +2182,7 @@
         <v>77</v>
       </c>
       <c r="D67">
-        <v>153.1242206970457</v>
+        <v>153.1551436924688</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>143.3950414157272</v>
+        <v>142.7899058236586</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>145.2429113921242</v>
+        <v>145.2453649957453</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2294,7 +2294,7 @@
         <v>85</v>
       </c>
       <c r="D75">
-        <v>146.4847363005402</v>
+        <v>146.4886213409688</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>126.5337274373632</v>
+        <v>126.533797456366</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.514582373568</v>
+        <v>121.5143238621265</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2476,7 +2476,7 @@
         <v>98</v>
       </c>
       <c r="D88">
-        <v>125.3978642074147</v>
+        <v>125.3625080915341</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.4321210345939</v>
+        <v>120.4156207628175</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2672,7 +2672,7 @@
         <v>112</v>
       </c>
       <c r="D102">
-        <v>115.3855965967593</v>
+        <v>115.3980117204811</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2868,7 +2868,7 @@
         <v>126</v>
       </c>
       <c r="D116">
-        <v>130.2313206149672</v>
+        <v>130.2095340411168</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3064,7 +3064,7 @@
         <v>140</v>
       </c>
       <c r="D130">
-        <v>112.8561925223952</v>
+        <v>112.8593061453139</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3246,7 +3246,7 @@
         <v>153</v>
       </c>
       <c r="D143">
-        <v>126.5119573777513</v>
+        <v>126.4851431249268</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="D152">
-        <v>139.0008329276324</v>
+        <v>139.0009465272276</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3400,7 +3400,7 @@
         <v>164</v>
       </c>
       <c r="D154">
-        <v>140.7580912513902</v>
+        <v>140.7596464833414</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3414,7 +3414,7 @@
         <v>165</v>
       </c>
       <c r="D155">
-        <v>108.7692859194662</v>
+        <v>108.7732687213807</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3470,7 +3470,7 @@
         <v>169</v>
       </c>
       <c r="D159">
-        <v>122.537558413563</v>
+        <v>122.5358319986594</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3484,7 +3484,7 @@
         <v>170</v>
       </c>
       <c r="D160">
-        <v>138.6742590236462</v>
+        <v>137.7024134239995</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.9308620203854</v>
+        <v>134.933030507365</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3526,7 +3526,7 @@
         <v>173</v>
       </c>
       <c r="D163">
-        <v>138.6700889578235</v>
+        <v>138.6650026213173</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.3987730342142</v>
+        <v>137.4150126721454</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.925379455535</v>
+        <v>126.9611870277596</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <v>185.3929722724385</v>
+        <v>185.397168187145</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3666,7 +3666,7 @@
         <v>183</v>
       </c>
       <c r="D173">
-        <v>159.0079003770152</v>
+        <v>159.0651206423306</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3680,7 +3680,7 @@
         <v>184</v>
       </c>
       <c r="D174">
-        <v>131.6492265425367</v>
+        <v>131.5806338446446</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>112.5213280224277</v>
+        <v>112.5126692272111</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3806,7 +3806,7 @@
         <v>193</v>
       </c>
       <c r="D183">
-        <v>139.7909226786381</v>
+        <v>139.8103827003823</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3834,7 +3834,7 @@
         <v>195</v>
       </c>
       <c r="D185">
-        <v>113.3456663159239</v>
+        <v>113.345639413551</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3848,7 +3848,7 @@
         <v>196</v>
       </c>
       <c r="D186">
-        <v>113.1526504379452</v>
+        <v>113.1563533146939</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3862,7 +3862,7 @@
         <v>197</v>
       </c>
       <c r="D187">
-        <v>107.4915007510725</v>
+        <v>107.4949146721116</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4016,7 +4016,7 @@
         <v>208</v>
       </c>
       <c r="D198">
-        <v>883.6161414339615</v>
+        <v>800.6176232458042</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.31745878559509</v>
+        <v>92.31811866381666</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>129.5604702141086</v>
+        <v>129.5624711463643</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>154.9069058515506</v>
+        <v>154.9133920625986</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4842,7 +4842,7 @@
         <v>267</v>
       </c>
       <c r="D257">
-        <v>130.567157467234</v>
+        <v>130.5654575003647</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>272</v>
       </c>
       <c r="D262">
-        <v>137.189572889743</v>
+        <v>137.193816989</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4982,7 +4982,7 @@
         <v>277</v>
       </c>
       <c r="D267">
-        <v>142.3829196455186</v>
+        <v>142.3832005253657</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,7 +4996,7 @@
         <v>278</v>
       </c>
       <c r="D268">
-        <v>148.376612869488</v>
+        <v>148.3762876359158</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5052,7 +5052,7 @@
         <v>282</v>
       </c>
       <c r="D272">
-        <v>122.6283772829561</v>
+        <v>122.5504685089462</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5192,7 +5192,7 @@
         <v>13</v>
       </c>
       <c r="D282">
-        <v>249.0057415068017</v>
+        <v>249.1978048551792</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5290,7 +5290,7 @@
         <v>20</v>
       </c>
       <c r="D289">
-        <v>241.6917476201799</v>
+        <v>243.2069074519231</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.4061216545753</v>
+        <v>183.4023363855662</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>142.869095812096</v>
+        <v>143.3125103692069</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5346,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="D293">
-        <v>129.3460707505322</v>
+        <v>129.340225200911</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5374,7 +5374,7 @@
         <v>26</v>
       </c>
       <c r="D295">
-        <v>173.1437009248761</v>
+        <v>173.1205892905873</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5388,7 +5388,7 @@
         <v>27</v>
       </c>
       <c r="D296">
-        <v>149.625326178816</v>
+        <v>149.6306047578079</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>155.242999716684</v>
+        <v>155.2367051516381</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>351.1198411291278</v>
+        <v>351.2712981237857</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="D301">
-        <v>198.2059145190422</v>
+        <v>198.1891826680716</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5472,7 +5472,7 @@
         <v>33</v>
       </c>
       <c r="D302">
-        <v>293.7102778645475</v>
+        <v>289.4761955685092</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="D306">
-        <v>406.7458440930033</v>
+        <v>406.9543007223361</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>343.1865551922214</v>
+        <v>344.6074792400743</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5570,7 +5570,7 @@
         <v>40</v>
       </c>
       <c r="D309">
-        <v>209.5572017195132</v>
+        <v>209.5736883968612</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5710,7 +5710,7 @@
         <v>50</v>
       </c>
       <c r="D319">
-        <v>386.0589506675702</v>
+        <v>395.3261327933687</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5892,7 +5892,7 @@
         <v>63</v>
       </c>
       <c r="D332">
-        <v>154.6565380899371</v>
+        <v>154.6580266425538</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>162.7312897346914</v>
+        <v>162.6211276697524</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6088,7 +6088,7 @@
         <v>77</v>
       </c>
       <c r="D346">
-        <v>153.0684312798756</v>
+        <v>153.1439939923921</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6144,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="D350">
-        <v>157.277597028185</v>
+        <v>157.2869715054232</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>130.1320394505601</v>
+        <v>130.1321909185797</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.8051404717524</v>
+        <v>121.8049131078277</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6970,7 +6970,7 @@
         <v>140</v>
       </c>
       <c r="D409">
-        <v>113.467885197943</v>
+        <v>113.4804928164788</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7278,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="D431">
-        <v>148.4070019595819</v>
+        <v>148.4073321844264</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7376,7 +7376,7 @@
         <v>169</v>
       </c>
       <c r="D438">
-        <v>114.0239697633976</v>
+        <v>114.0191936449669</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.8623625779793</v>
+        <v>144.8683265717344</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7432,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="D442">
-        <v>140.482787013643</v>
+        <v>140.4709265242394</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.6732120005297</v>
+        <v>147.7200295660203</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.5767158703476</v>
+        <v>123.5782777602328</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>178</v>
       </c>
       <c r="D447">
-        <v>206.1591286634809</v>
+        <v>206.1672068399098</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>111.896485728408</v>
+        <v>111.8918759566037</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7922,7 +7922,7 @@
         <v>208</v>
       </c>
       <c r="D477">
-        <v>888.7831233587655</v>
+        <v>805.2992679034915</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.16753862576014</v>
+        <v>90.16925708605552</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>137.972238394706</v>
+        <v>137.9768175347121</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>158.569388767185</v>
+        <v>158.5913849865695</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8748,7 +8748,7 @@
         <v>267</v>
       </c>
       <c r="D536">
-        <v>141.8894080721186</v>
+        <v>141.8845489927381</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8818,7 +8818,7 @@
         <v>272</v>
       </c>
       <c r="D541">
-        <v>152.0339831244796</v>
+        <v>152.0443979159513</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8888,7 +8888,7 @@
         <v>277</v>
       </c>
       <c r="D546">
-        <v>145.9281574194572</v>
+        <v>145.9287511539282</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8902,7 +8902,7 @@
         <v>278</v>
       </c>
       <c r="D547">
-        <v>148.4165684920093</v>
+        <v>148.4159223851598</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8958,7 +8958,7 @@
         <v>282</v>
       </c>
       <c r="D551">
-        <v>125.0611136804355</v>
+        <v>124.9816593301534</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -9308,7 +9308,7 @@
         <v>28</v>
       </c>
       <c r="D576">
-        <v>174.1715167905734</v>
+        <v>170.3063232626137</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -9448,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="D586">
-        <v>615.470395307452</v>
+        <v>616.045569853268</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -9546,7 +9546,7 @@
         <v>45</v>
       </c>
       <c r="D593">
-        <v>1220.196339322596</v>
+        <v>1171.220965010906</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>110.4633439078746</v>
+        <v>110.4623808481347</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -11828,7 +11828,7 @@
         <v>208</v>
       </c>
       <c r="D756">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -12864,7 +12864,7 @@
         <v>282</v>
       </c>
       <c r="D830">
-        <v>121.3378504484912</v>
+        <v>121.2607615773922</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -13340,7 +13340,7 @@
         <v>37</v>
       </c>
       <c r="D864">
-        <v>551.3819212944617</v>
+        <v>572.5044797607951</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -14586,7 +14586,7 @@
         <v>126</v>
       </c>
       <c r="D953">
-        <v>131.8415705897358</v>
+        <v>131.5895772326878</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>110.6053704371523</v>
+        <v>110.601981939455</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -15524,7 +15524,7 @@
         <v>193</v>
       </c>
       <c r="D1020">
-        <v>114.4194094381938</v>
+        <v>114.6536131802722</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
@@ -15734,7 +15734,7 @@
         <v>208</v>
       </c>
       <c r="D1035">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -16770,7 +16770,7 @@
         <v>282</v>
       </c>
       <c r="D1109">
-        <v>152.7375650873634</v>
+        <v>152.6405272181126</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -17036,7 +17036,7 @@
         <v>22</v>
       </c>
       <c r="D1128">
-        <v>141.3161497163653</v>
+        <v>147.7209677137947</v>
       </c>
     </row>
     <row r="1129" spans="1:4">
@@ -17260,7 +17260,7 @@
         <v>38</v>
       </c>
       <c r="D1144">
-        <v>1384.694491102382</v>
+        <v>1386.859244539384</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -17358,7 +17358,7 @@
         <v>45</v>
       </c>
       <c r="D1151">
-        <v>5989.342053191659</v>
+        <v>5674.57996987465</v>
       </c>
     </row>
     <row r="1152" spans="1:4">
@@ -17428,7 +17428,7 @@
         <v>50</v>
       </c>
       <c r="D1156">
-        <v>1883.282935390267</v>
+        <v>2065.631767368664</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
@@ -17526,7 +17526,7 @@
         <v>57</v>
       </c>
       <c r="D1163">
-        <v>8824.347577512593</v>
+        <v>8708.938401369291</v>
       </c>
     </row>
     <row r="1164" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>112.6264888448139</v>
+        <v>112.6158791101924</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -19640,7 +19640,7 @@
         <v>208</v>
       </c>
       <c r="D1314">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="1315" spans="1:4">
@@ -20676,7 +20676,7 @@
         <v>282</v>
       </c>
       <c r="D1388">
-        <v>121.9609031356542</v>
+        <v>121.8834184241137</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -21208,7 +21208,7 @@
         <v>41</v>
       </c>
       <c r="D1426">
-        <v>976.4791871809209</v>
+        <v>961.21690527648</v>
       </c>
     </row>
     <row r="1427" spans="1:4">
@@ -21306,7 +21306,7 @@
         <v>48</v>
       </c>
       <c r="D1433">
-        <v>641.0572694858735</v>
+        <v>676.8807865116684</v>
       </c>
     </row>
     <row r="1434" spans="1:4">
@@ -21362,7 +21362,7 @@
         <v>52</v>
       </c>
       <c r="D1437">
-        <v>474.5948189077003</v>
+        <v>477.6985136387809</v>
       </c>
     </row>
     <row r="1438" spans="1:4">
@@ -21740,7 +21740,7 @@
         <v>79</v>
       </c>
       <c r="D1464">
-        <v>143.2882761700869</v>
+        <v>137.5920450651501</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.071627049043</v>
+        <v>119.0694290839065</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>113.4896665021278</v>
+        <v>113.4770241724436</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -23364,7 +23364,7 @@
         <v>195</v>
       </c>
       <c r="D1580">
-        <v>114.6965648012423</v>
+        <v>114.636235190807</v>
       </c>
     </row>
     <row r="1581" spans="1:4">
@@ -23378,7 +23378,7 @@
         <v>196</v>
       </c>
       <c r="D1581">
-        <v>114.4617879138492</v>
+        <v>114.3672960565542</v>
       </c>
     </row>
     <row r="1582" spans="1:4">
@@ -23392,7 +23392,7 @@
         <v>197</v>
       </c>
       <c r="D1582">
-        <v>119.6379763724602</v>
+        <v>119.5641217351284</v>
       </c>
     </row>
     <row r="1583" spans="1:4">
@@ -23546,7 +23546,7 @@
         <v>208</v>
       </c>
       <c r="D1593">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="1594" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>282</v>
       </c>
       <c r="D1667">
-        <v>119.6187475715653</v>
+        <v>119.5427508881027</v>
       </c>
     </row>
     <row r="1668" spans="1:4">
@@ -24960,7 +24960,7 @@
         <v>30</v>
       </c>
       <c r="D1694">
-        <v>205.5637636480926</v>
+        <v>205.5326999647255</v>
       </c>
     </row>
     <row r="1695" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>402.5798754483141</v>
+        <v>404.2209569966484</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25114,7 +25114,7 @@
         <v>41</v>
       </c>
       <c r="D1705">
-        <v>1035.310886463779</v>
+        <v>1008.839434318284</v>
       </c>
     </row>
     <row r="1706" spans="1:4">
@@ -25240,7 +25240,7 @@
         <v>50</v>
       </c>
       <c r="D1714">
-        <v>560.4242232376619</v>
+        <v>564.8073303003106</v>
       </c>
     </row>
     <row r="1715" spans="1:4">
@@ -25366,7 +25366,7 @@
         <v>59</v>
       </c>
       <c r="D1723">
-        <v>388.644234372939</v>
+        <v>387.3322216262365</v>
       </c>
     </row>
     <row r="1724" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>137.6566214241437</v>
+        <v>137.6476926666538</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -25730,7 +25730,7 @@
         <v>85</v>
       </c>
       <c r="D1749">
-        <v>134.284709614026</v>
+        <v>134.3385162323042</v>
       </c>
     </row>
     <row r="1750" spans="1:4">
@@ -25912,7 +25912,7 @@
         <v>98</v>
       </c>
       <c r="D1762">
-        <v>141.8867266461941</v>
+        <v>141.7072656869226</v>
       </c>
     </row>
     <row r="1763" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>119.2611037165861</v>
+        <v>119.1867078209741</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26108,7 +26108,7 @@
         <v>112</v>
       </c>
       <c r="D1776">
-        <v>113.6414464613239</v>
+        <v>113.7155539565642</v>
       </c>
     </row>
     <row r="1777" spans="1:4">
@@ -26682,7 +26682,7 @@
         <v>153</v>
       </c>
       <c r="D1817">
-        <v>122.9502027741956</v>
+        <v>122.7615460760294</v>
       </c>
     </row>
     <row r="1818" spans="1:4">
@@ -26836,7 +26836,7 @@
         <v>164</v>
       </c>
       <c r="D1828">
-        <v>111.7358933356428</v>
+        <v>111.7493735490837</v>
       </c>
     </row>
     <row r="1829" spans="1:4">
@@ -26850,7 +26850,7 @@
         <v>165</v>
       </c>
       <c r="D1829">
-        <v>112.5988939803761</v>
+        <v>112.6213549493049</v>
       </c>
     </row>
     <row r="1830" spans="1:4">
@@ -27018,7 +27018,7 @@
         <v>177</v>
       </c>
       <c r="D1841">
-        <v>121.4253991016029</v>
+        <v>121.5796183665823</v>
       </c>
     </row>
     <row r="1842" spans="1:4">
@@ -27102,7 +27102,7 @@
         <v>183</v>
       </c>
       <c r="D1847">
-        <v>150.8642003930524</v>
+        <v>151.541687282045</v>
       </c>
     </row>
     <row r="1848" spans="1:4">
@@ -27116,7 +27116,7 @@
         <v>184</v>
       </c>
       <c r="D1848">
-        <v>120.4617142874121</v>
+        <v>120.1015464686106</v>
       </c>
     </row>
     <row r="1849" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.2210354240491</v>
+        <v>114.2039076614239</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -27452,7 +27452,7 @@
         <v>208</v>
       </c>
       <c r="D1872">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="1873" spans="1:4">
@@ -28488,7 +28488,7 @@
         <v>282</v>
       </c>
       <c r="D1946">
-        <v>142.084102537503</v>
+        <v>141.9938330706776</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
@@ -29090,7 +29090,7 @@
         <v>46</v>
       </c>
       <c r="D1989">
-        <v>1181.456844736158</v>
+        <v>1149.075611890784</v>
       </c>
     </row>
     <row r="1990" spans="1:4">
@@ -29118,7 +29118,7 @@
         <v>48</v>
       </c>
       <c r="D1991">
-        <v>756.8048435828757</v>
+        <v>717.5096549438983</v>
       </c>
     </row>
     <row r="1992" spans="1:4">
@@ -29132,7 +29132,7 @@
         <v>49</v>
       </c>
       <c r="D1992">
-        <v>1296.680206105644</v>
+        <v>1240.700558537992</v>
       </c>
     </row>
     <row r="1993" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>114.3237520434055</v>
+        <v>114.3072594856945</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
@@ -31358,7 +31358,7 @@
         <v>208</v>
       </c>
       <c r="D2151">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="2152" spans="1:4">
@@ -32394,7 +32394,7 @@
         <v>282</v>
       </c>
       <c r="D2225">
-        <v>127.643307251224</v>
+        <v>127.5622123709128</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>911.9174873065012</v>
+        <v>909.2983583272371</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -34732,7 +34732,7 @@
         <v>170</v>
       </c>
       <c r="D2392">
-        <v>130.4217156968545</v>
+        <v>112.043774</v>
       </c>
     </row>
     <row r="2393" spans="1:4">
@@ -35082,7 +35082,7 @@
         <v>195</v>
       </c>
       <c r="D2417">
-        <v>106.5006752816358</v>
+        <v>106.6910448884543</v>
       </c>
     </row>
     <row r="2418" spans="1:4">
@@ -35096,7 +35096,7 @@
         <v>196</v>
       </c>
       <c r="D2418">
-        <v>104.3533840072242</v>
+        <v>104.5277298238565</v>
       </c>
     </row>
     <row r="2419" spans="1:4">
@@ -35110,7 +35110,7 @@
         <v>197</v>
       </c>
       <c r="D2419">
-        <v>107.4160881769058</v>
+        <v>107.6199918570025</v>
       </c>
     </row>
     <row r="2420" spans="1:4">
@@ -35264,7 +35264,7 @@
         <v>208</v>
       </c>
       <c r="D2430">
-        <v>872.2452862816839</v>
+        <v>790.3148383605993</v>
       </c>
     </row>
     <row r="2431" spans="1:4">
@@ -36300,7 +36300,7 @@
         <v>282</v>
       </c>
       <c r="D2504">
-        <v>145.4635389373639</v>
+        <v>145.3711224328577</v>
       </c>
     </row>
     <row r="2505" spans="1:4">

--- a/IPC2024_base2010/imputacion/indprod_5_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_5_2024.xlsx
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>193.1425456926959</v>
+        <v>193.1437653811685</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>155.7734226608688</v>
+        <v>155.774071260047</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>157.3568264058626</v>
+        <v>157.3593641511809</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>240.9080809162002</v>
+        <v>240.9141015472239</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>150.5030444543971</v>
+        <v>150.5003156088055</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>359.5093492961938</v>
+        <v>359.511200623538</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>208.3998183454929</v>
+        <v>208.4070209815853</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>293.9360938295179</v>
+        <v>293.8626984143132</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>183.1881198086847</v>
+        <v>183.1918543747132</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>435.8999925651004</v>
+        <v>435.8295113120633</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>515.8987542537587</v>
+        <v>515.9124722795906</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="D53">
-        <v>133.0975930237133</v>
+        <v>133.0972411543651</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>153.2663451924862</v>
+        <v>153.3102176385175</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2182,7 +2182,7 @@
         <v>77</v>
       </c>
       <c r="D67">
-        <v>153.1551436924688</v>
+        <v>153.1242206970457</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>145.2453649957453</v>
+        <v>145.2763784157185</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>126.533797456366</v>
+        <v>126.5337274373632</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.5143238621265</v>
+        <v>121.514582373568</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.4156207628175</v>
+        <v>120.4156842530139</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3064,7 +3064,7 @@
         <v>140</v>
       </c>
       <c r="D130">
-        <v>112.8593061453139</v>
+        <v>112.8561925223952</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="D152">
-        <v>139.0009465272276</v>
+        <v>139.0008329276324</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3400,7 +3400,7 @@
         <v>164</v>
       </c>
       <c r="D154">
-        <v>140.7596464833414</v>
+        <v>140.7580912513902</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3470,7 +3470,7 @@
         <v>169</v>
       </c>
       <c r="D159">
-        <v>122.5358319986594</v>
+        <v>122.537558413563</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.933030507365</v>
+        <v>134.9308620203854</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3526,7 +3526,7 @@
         <v>173</v>
       </c>
       <c r="D163">
-        <v>138.6650026213173</v>
+        <v>138.6700889578235</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.4150126721454</v>
+        <v>137.3987730342142</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.9611870277596</v>
+        <v>126.9607492099346</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <v>185.397168187145</v>
+        <v>185.3929722724385</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>112.5126692272111</v>
+        <v>112.5213280224277</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3890,7 +3890,7 @@
         <v>199</v>
       </c>
       <c r="D189">
-        <v>137.1699641747643</v>
+        <v>136.9541602619284</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4030,7 +4030,7 @@
         <v>209</v>
       </c>
       <c r="D199">
-        <v>124.1775924385976</v>
+        <v>122.7444731365634</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.31811866381666</v>
+        <v>92.31745878559509</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4128,7 +4128,7 @@
         <v>216</v>
       </c>
       <c r="D206">
-        <v>114.4372315695785</v>
+        <v>115.1901080930626</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>94.93565576210666</v>
+        <v>98.63286827819456</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>97.88561753193332</v>
+        <v>86.83950100102865</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>110.469469077167</v>
+        <v>112.5031046402663</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>112.8380128212709</v>
+        <v>107.898477651532</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>209.5935776650691</v>
+        <v>193.6412043429439</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4478,7 +4478,7 @@
         <v>241</v>
       </c>
       <c r="D231">
-        <v>99.99999999999999</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>145.8694087996588</v>
+        <v>136.3923000114313</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>129.5624711463643</v>
+        <v>131.1123635633957</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>285.6112600211462</v>
+        <v>245.07420462919</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4604,7 +4604,7 @@
         <v>250</v>
       </c>
       <c r="D240">
-        <v>107.3841642380476</v>
+        <v>107.5923082191585</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.9457023050519</v>
+        <v>113.8092657772488</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>154.9133920625986</v>
+        <v>154.9069058515506</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>117.3733971201461</v>
+        <v>113.3776180782296</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4800,7 +4800,7 @@
         <v>264</v>
       </c>
       <c r="D254">
-        <v>119.2531338470616</v>
+        <v>111.7459749915843</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4814,7 +4814,7 @@
         <v>265</v>
       </c>
       <c r="D255">
-        <v>117.7639966308485</v>
+        <v>125.6754496405006</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4842,7 +4842,7 @@
         <v>267</v>
       </c>
       <c r="D257">
-        <v>130.5654575003647</v>
+        <v>130.567157467234</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>272</v>
       </c>
       <c r="D262">
-        <v>137.193816989</v>
+        <v>137.189572889743</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>113.4434224950259</v>
+        <v>116.507591950736</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4954,7 +4954,7 @@
         <v>275</v>
       </c>
       <c r="D265">
-        <v>149.2114237058881</v>
+        <v>156.2609749577075</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4982,7 +4982,7 @@
         <v>277</v>
       </c>
       <c r="D267">
-        <v>142.3832005253657</v>
+        <v>142.3829196455186</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,7 +4996,7 @@
         <v>278</v>
       </c>
       <c r="D268">
-        <v>148.3762876359158</v>
+        <v>148.376612869488</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5038,7 +5038,7 @@
         <v>281</v>
       </c>
       <c r="D271">
-        <v>129.4517002297363</v>
+        <v>129.3694564336276</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5052,7 +5052,7 @@
         <v>282</v>
       </c>
       <c r="D272">
-        <v>122.5504685089462</v>
+        <v>122.6283772829561</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>104.0670318258165</v>
+        <v>100.5163161697619</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.4023363855662</v>
+        <v>183.4061216545753</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>143.3125103692069</v>
+        <v>143.3146244018797</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5346,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="D293">
-        <v>129.340225200911</v>
+        <v>129.3460707505322</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5374,7 +5374,7 @@
         <v>26</v>
       </c>
       <c r="D295">
-        <v>173.1205892905873</v>
+        <v>173.1437009248761</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5388,7 +5388,7 @@
         <v>27</v>
       </c>
       <c r="D296">
-        <v>149.6306047578079</v>
+        <v>149.625326178816</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>155.2367051516381</v>
+        <v>155.242999716684</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>351.2712981237857</v>
+        <v>351.1198411291278</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="D301">
-        <v>198.1891826680716</v>
+        <v>198.2059145190422</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="D306">
-        <v>406.9543007223361</v>
+        <v>406.7458440930033</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>344.6074792400743</v>
+        <v>344.644946626203</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5892,7 +5892,7 @@
         <v>63</v>
       </c>
       <c r="D332">
-        <v>154.6580266425538</v>
+        <v>154.6565380899371</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>162.6211276697524</v>
+        <v>162.7312897346914</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6088,7 +6088,7 @@
         <v>77</v>
       </c>
       <c r="D346">
-        <v>153.1439939923921</v>
+        <v>153.0684312798756</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6144,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="D350">
-        <v>157.2869715054232</v>
+        <v>157.277597028185</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>130.1321909185797</v>
+        <v>130.1320394505601</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.8049131078277</v>
+        <v>121.8051404717524</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6970,7 +6970,7 @@
         <v>140</v>
       </c>
       <c r="D409">
-        <v>113.4804928164788</v>
+        <v>113.467885197943</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7278,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="D431">
-        <v>148.4073321844264</v>
+        <v>148.4070019595819</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7376,7 +7376,7 @@
         <v>169</v>
       </c>
       <c r="D438">
-        <v>114.0191936449669</v>
+        <v>114.0239697633976</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.8683265717344</v>
+        <v>144.8623625779793</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7432,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="D442">
-        <v>140.4709265242394</v>
+        <v>140.482787013643</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.7200295660203</v>
+        <v>147.6732120005297</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.5782777602328</v>
+        <v>123.5767158703476</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>178</v>
       </c>
       <c r="D447">
-        <v>206.1672068399098</v>
+        <v>206.1591286634809</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>111.8918759566037</v>
+        <v>111.896485728408</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7796,7 +7796,7 @@
         <v>199</v>
       </c>
       <c r="D468">
-        <v>133.5540176233022</v>
+        <v>133.3597894025565</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7936,7 +7936,7 @@
         <v>209</v>
       </c>
       <c r="D478">
-        <v>139.7495300640706</v>
+        <v>138.4118780931625</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.16925708605552</v>
+        <v>90.16753862576014</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8034,7 +8034,7 @@
         <v>216</v>
       </c>
       <c r="D485">
-        <v>115.4639975064937</v>
+        <v>116.2236290690364</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>124.0933067674769</v>
+        <v>128.9260466191205</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>88.34573585435476</v>
+        <v>78.37616812968504</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>110.4080726545496</v>
+        <v>112.4405779691782</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>110.3055236782727</v>
+        <v>105.4768493689482</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>176.2200171812081</v>
+        <v>162.8077383689338</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8384,7 +8384,7 @@
         <v>241</v>
       </c>
       <c r="D510">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>148.0104342489314</v>
+        <v>137.2283218939735</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>137.9768175347121</v>
+        <v>140.0790869669852</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>367.6325526754881</v>
+        <v>315.4541436359104</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8510,7 +8510,7 @@
         <v>250</v>
       </c>
       <c r="D519">
-        <v>107.4591606326993</v>
+        <v>107.6215630485739</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.2157620554495</v>
+        <v>116.1005</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>158.5913849865695</v>
+        <v>158.569388767185</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>117.1177425690284</v>
+        <v>113.130666854462</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8706,7 +8706,7 @@
         <v>264</v>
       </c>
       <c r="D533">
-        <v>118.627589</v>
+        <v>111.1598091057845</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -8720,7 +8720,7 @@
         <v>265</v>
       </c>
       <c r="D534">
-        <v>118.5762053737496</v>
+        <v>126.5422230337815</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8748,7 +8748,7 @@
         <v>267</v>
       </c>
       <c r="D536">
-        <v>141.8845489927381</v>
+        <v>141.8894080721186</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8818,7 +8818,7 @@
         <v>272</v>
       </c>
       <c r="D541">
-        <v>152.0443979159513</v>
+        <v>152.0339831244796</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>122.9860965623897</v>
+        <v>125.806874624123</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>275</v>
       </c>
       <c r="D544">
-        <v>163.0616495633713</v>
+        <v>170.7655600767447</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8888,7 +8888,7 @@
         <v>277</v>
       </c>
       <c r="D546">
-        <v>145.9287511539282</v>
+        <v>145.9281574194572</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8902,7 +8902,7 @@
         <v>278</v>
       </c>
       <c r="D547">
-        <v>148.4159223851598</v>
+        <v>148.4165684920093</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8944,7 +8944,7 @@
         <v>281</v>
       </c>
       <c r="D550">
-        <v>123.569588696171</v>
+        <v>123.4910819477859</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8958,7 +8958,7 @@
         <v>282</v>
       </c>
       <c r="D551">
-        <v>124.9816593301534</v>
+        <v>125.0611136804355</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>105.8499047466228</v>
+        <v>102.2383583482899</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10050,7 +10050,7 @@
         <v>81</v>
       </c>
       <c r="D629">
-        <v>137.4030927141748</v>
+        <v>138.0750453614357</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>110.4623808481347</v>
+        <v>110.4633439078746</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -11702,7 +11702,7 @@
         <v>199</v>
       </c>
       <c r="D747">
-        <v>122.3173793522231</v>
+        <v>122.0075014472664</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -11842,7 +11842,7 @@
         <v>209</v>
       </c>
       <c r="D757">
-        <v>116.9320058541146</v>
+        <v>111.9613081376603</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -11940,7 +11940,7 @@
         <v>216</v>
       </c>
       <c r="D764">
-        <v>118.026736</v>
+        <v>118.8032276842105</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>71.70568107793916</v>
+        <v>74.4982160789117</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>100.4356802150267</v>
+        <v>89.10179628510284</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>87.58529141068591</v>
+        <v>89.19765150352535</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>110.1730357339022</v>
+        <v>105.3501611444098</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>114.2463140939597</v>
+        <v>105.5509147720589</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12290,7 +12290,7 @@
         <v>241</v>
       </c>
       <c r="D789">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>136.1819263434109</v>
+        <v>131.3408527187311</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>119.0995093424267</v>
+        <v>120.1521914602038</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>188.1858603674201</v>
+        <v>161.4764769728991</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>250</v>
       </c>
       <c r="D798">
-        <v>106.0553155154627</v>
+        <v>107.1805899465235</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.6496016872086</v>
+        <v>102.5041594642034</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>123.2271289630561</v>
+        <v>119.0320695084667</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12612,7 +12612,7 @@
         <v>264</v>
       </c>
       <c r="D812">
-        <v>118.251332</v>
+        <v>110.8072380331758</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -12626,7 +12626,7 @@
         <v>265</v>
       </c>
       <c r="D813">
-        <v>109.4616057557012</v>
+        <v>116.8152993723668</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>84.07822759070561</v>
+        <v>87.67651582219482</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12766,7 +12766,7 @@
         <v>275</v>
       </c>
       <c r="D823">
-        <v>141.7836594388604</v>
+        <v>148.4822831035932</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12850,7 +12850,7 @@
         <v>281</v>
       </c>
       <c r="D829">
-        <v>134.0879569295564</v>
+        <v>134.0027676074326</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12864,7 +12864,7 @@
         <v>282</v>
       </c>
       <c r="D830">
-        <v>121.2607615773922</v>
+        <v>121.3378504484912</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>88.57977530080649</v>
+        <v>85.55747717764298</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>110.601981939455</v>
+        <v>110.6053704371523</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -15608,7 +15608,7 @@
         <v>199</v>
       </c>
       <c r="D1026">
-        <v>154.4966351311095</v>
+        <v>153.9908061350224</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -15748,7 +15748,7 @@
         <v>209</v>
       </c>
       <c r="D1036">
-        <v>139.4064978710958</v>
+        <v>137.5859101332868</v>
       </c>
     </row>
     <row r="1037" spans="1:4">
@@ -15846,7 +15846,7 @@
         <v>216</v>
       </c>
       <c r="D1043">
-        <v>110.968916</v>
+        <v>111.6989746578947</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>74.2796494963065</v>
+        <v>77.17242616281564</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>106.3709672010548</v>
+        <v>94.36730283407488</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>133.8753053428754</v>
+        <v>128.0148531551175</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>87.64840774964486</v>
+        <v>80.97740123747721</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16196,7 +16196,7 @@
         <v>241</v>
       </c>
       <c r="D1068">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>130.5366512868438</v>
+        <v>123.5344959663696</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>123.987079684432</v>
+        <v>125.2667147646588</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>242.2392408115061</v>
+        <v>207.8580139573743</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16322,7 +16322,7 @@
         <v>250</v>
       </c>
       <c r="D1077">
-        <v>107.3975386481192</v>
+        <v>107.5834971496167</v>
       </c>
     </row>
     <row r="1078" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.5408060219988</v>
+        <v>106.3973549957902</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>120.6227328118159</v>
+        <v>116.5163356249407</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16518,7 +16518,7 @@
         <v>264</v>
       </c>
       <c r="D1091">
-        <v>125.6604545124253</v>
+        <v>117.7499454679747</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -16532,7 +16532,7 @@
         <v>265</v>
       </c>
       <c r="D1092">
-        <v>125.4028319507431</v>
+        <v>133.8274663096259</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>110.999222015667</v>
+        <v>113.8710399215682</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -16672,7 +16672,7 @@
         <v>275</v>
       </c>
       <c r="D1102">
-        <v>147.9533280141385</v>
+        <v>154.943440049855</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -16756,7 +16756,7 @@
         <v>281</v>
       </c>
       <c r="D1108">
-        <v>134.4697753112669</v>
+        <v>134.3843434106903</v>
       </c>
     </row>
     <row r="1109" spans="1:4">
@@ -16770,7 +16770,7 @@
         <v>282</v>
       </c>
       <c r="D1109">
-        <v>152.6405272181126</v>
+        <v>152.7375650873634</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>106.4929035062295</v>
+        <v>102.8594183082355</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>112.6158791101924</v>
+        <v>112.6264888448139</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -19514,7 +19514,7 @@
         <v>199</v>
       </c>
       <c r="D1305">
-        <v>145.78551</v>
+        <v>145.5256616065095</v>
       </c>
     </row>
     <row r="1306" spans="1:4">
@@ -19654,7 +19654,7 @@
         <v>209</v>
       </c>
       <c r="D1315">
-        <v>115.3752304079984</v>
+        <v>114.420911671307</v>
       </c>
     </row>
     <row r="1316" spans="1:4">
@@ -19752,7 +19752,7 @@
         <v>216</v>
       </c>
       <c r="D1322">
-        <v>132.082234</v>
+        <v>132.9511960657895</v>
       </c>
     </row>
     <row r="1323" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>90.35846862492794</v>
+        <v>93.87742531672933</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>95.15299129934506</v>
+        <v>96.90466539226979</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>107.3825503355705</v>
+        <v>99.20955882352941</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20102,7 +20102,7 @@
         <v>241</v>
       </c>
       <c r="D1347">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1348" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>142.6043293422621</v>
+        <v>135.1219666620112</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>117.1123100656493</v>
+        <v>118.1409882316692</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>135.692780604045</v>
+        <v>116.4337858318239</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20228,7 +20228,7 @@
         <v>250</v>
       </c>
       <c r="D1356">
-        <v>110.653090558818</v>
+        <v>111.6113270557901</v>
       </c>
     </row>
     <row r="1357" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.973125381922</v>
+        <v>128.804858</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>109.6154751743259</v>
+        <v>105.8838014806443</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20424,7 +20424,7 @@
         <v>264</v>
       </c>
       <c r="D1370">
-        <v>121.0976902316696</v>
+        <v>113.4744138591893</v>
       </c>
     </row>
     <row r="1371" spans="1:4">
@@ -20438,7 +20438,7 @@
         <v>265</v>
       </c>
       <c r="D1371">
-        <v>131.9517149176955</v>
+        <v>140.816307</v>
       </c>
     </row>
     <row r="1372" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>95.77573308168395</v>
+        <v>99.23676839411969</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20578,7 +20578,7 @@
         <v>275</v>
       </c>
       <c r="D1381">
-        <v>172.4537822403978</v>
+        <v>180.6014276838868</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -20662,7 +20662,7 @@
         <v>281</v>
       </c>
       <c r="D1387">
-        <v>146.7096620822997</v>
+        <v>146.6164538856204</v>
       </c>
     </row>
     <row r="1388" spans="1:4">
@@ -20676,7 +20676,7 @@
         <v>282</v>
       </c>
       <c r="D1388">
-        <v>121.8834184241137</v>
+        <v>121.9609031356542</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>105.7790079557431</v>
+        <v>102.1698805208508</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.0694290839065</v>
+        <v>119.071627049043</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>113.4770241724436</v>
+        <v>113.4896665021278</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -23420,7 +23420,7 @@
         <v>199</v>
       </c>
       <c r="D1584">
-        <v>133.4486565590735</v>
+        <v>132.9620350163753</v>
       </c>
     </row>
     <row r="1585" spans="1:4">
@@ -23560,7 +23560,7 @@
         <v>209</v>
       </c>
       <c r="D1594">
-        <v>103.1456267379469</v>
+        <v>102.7536638352079</v>
       </c>
     </row>
     <row r="1595" spans="1:4">
@@ -23658,7 +23658,7 @@
         <v>216</v>
       </c>
       <c r="D1601">
-        <v>103.0159506492142</v>
+        <v>103.6936871666432</v>
       </c>
     </row>
     <row r="1602" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>109.1935980977932</v>
+        <v>113.4460776780203</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>105.5119235137199</v>
+        <v>93.6051998098803</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>129.0848043208795</v>
+        <v>131.4611301140205</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>92.99597315436242</v>
+        <v>85.91795818014707</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -24008,7 +24008,7 @@
         <v>241</v>
       </c>
       <c r="D1626">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1627" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>171.1176518100835</v>
+        <v>155.377442953149</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>135.744774804927</v>
+        <v>137.4080448684552</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>188.3872355029314</v>
+        <v>161.6492707596842</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24134,7 +24134,7 @@
         <v>250</v>
       </c>
       <c r="D1635">
-        <v>105.9807187631539</v>
+        <v>106.0771915589281</v>
       </c>
     </row>
     <row r="1636" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.2862626710348</v>
+        <v>113.138971</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>104.4837147106138</v>
+        <v>100.9267431335289</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24330,7 +24330,7 @@
         <v>264</v>
       </c>
       <c r="D1649">
-        <v>116.1990194955424</v>
+        <v>108.8841215967377</v>
       </c>
     </row>
     <row r="1650" spans="1:4">
@@ -24344,7 +24344,7 @@
         <v>265</v>
       </c>
       <c r="D1650">
-        <v>113.0690060518546</v>
+        <v>120.6650468947228</v>
       </c>
     </row>
     <row r="1651" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>117.8118383430206</v>
+        <v>121.208857752621</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>275</v>
       </c>
       <c r="D1660">
-        <v>120.1255438509057</v>
+        <v>125.800921492894</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -24568,7 +24568,7 @@
         <v>281</v>
       </c>
       <c r="D1666">
-        <v>147.8513290779909</v>
+        <v>147.7573955526566</v>
       </c>
     </row>
     <row r="1667" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>282</v>
       </c>
       <c r="D1667">
-        <v>119.5427508881027</v>
+        <v>119.6187475715653</v>
       </c>
     </row>
     <row r="1668" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>102.3077456336973</v>
+        <v>98.81705595240386</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24960,7 +24960,7 @@
         <v>30</v>
       </c>
       <c r="D1694">
-        <v>205.5326999647255</v>
+        <v>205.5637636480926</v>
       </c>
     </row>
     <row r="1695" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>404.2209569966484</v>
+        <v>404.2128931970612</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>137.6476926666538</v>
+        <v>137.6566214241437</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -26836,7 +26836,7 @@
         <v>164</v>
       </c>
       <c r="D1828">
-        <v>111.7493735490837</v>
+        <v>111.7358933356428</v>
       </c>
     </row>
     <row r="1829" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.2039076614239</v>
+        <v>114.2210354240491</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -27326,7 +27326,7 @@
         <v>199</v>
       </c>
       <c r="D1863">
-        <v>159.2960745104042</v>
+        <v>159.2029564637945</v>
       </c>
     </row>
     <row r="1864" spans="1:4">
@@ -27466,7 +27466,7 @@
         <v>209</v>
       </c>
       <c r="D1873">
-        <v>123.8549681734975</v>
+        <v>123.4287773025582</v>
       </c>
     </row>
     <row r="1874" spans="1:4">
@@ -27564,7 +27564,7 @@
         <v>216</v>
       </c>
       <c r="D1880">
-        <v>110.779814</v>
+        <v>111.5086285657895</v>
       </c>
     </row>
     <row r="1881" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>57.51177936287055</v>
+        <v>59.75154132349486</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>101.1308800694785</v>
+        <v>89.71854479196988</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>101.1804656343535</v>
+        <v>103.0430996718287</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>134.0100815812312</v>
+        <v>128.1437295025345</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>344.1608215995309</v>
+        <v>317.9664030006062</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27914,7 +27914,7 @@
         <v>241</v>
       </c>
       <c r="D1905">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1906" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>146.4506039558531</v>
+        <v>139.4681038575939</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>117.6498361527863</v>
+        <v>118.7378221472945</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>260.2188041222076</v>
+        <v>223.2857221563583</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28040,7 +28040,7 @@
         <v>250</v>
       </c>
       <c r="D1914">
-        <v>107.0573068000457</v>
+        <v>107.4326044536065</v>
       </c>
     </row>
     <row r="1915" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>115.1303002123044</v>
+        <v>114.9703928250578</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>131.639407314969</v>
+        <v>127.1579660536154</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28236,7 +28236,7 @@
         <v>264</v>
       </c>
       <c r="D1928">
-        <v>119.1681060118827</v>
+        <v>111.6662997827493</v>
       </c>
     </row>
     <row r="1929" spans="1:4">
@@ -28250,7 +28250,7 @@
         <v>265</v>
       </c>
       <c r="D1929">
-        <v>115.1788423346107</v>
+        <v>122.9166231921407</v>
       </c>
     </row>
     <row r="1930" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>106.6183793148592</v>
+        <v>109.6840640774347</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28390,7 +28390,7 @@
         <v>275</v>
       </c>
       <c r="D1939">
-        <v>144.9154593337556</v>
+        <v>151.7620460922059</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
@@ -28474,7 +28474,7 @@
         <v>281</v>
       </c>
       <c r="D1945">
-        <v>136.537149046843</v>
+        <v>136.4504036937302</v>
       </c>
     </row>
     <row r="1946" spans="1:4">
@@ -28488,7 +28488,7 @@
         <v>282</v>
       </c>
       <c r="D1946">
-        <v>141.9938330706776</v>
+        <v>142.084102537503</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>90.16698762273751</v>
+        <v>87.09053460015883</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>114.3072594856945</v>
+        <v>114.3237520434055</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
@@ -31232,7 +31232,7 @@
         <v>199</v>
       </c>
       <c r="D2142">
-        <v>122.1006458270557</v>
+        <v>121.965525633816</v>
       </c>
     </row>
     <row r="2143" spans="1:4">
@@ -31372,7 +31372,7 @@
         <v>209</v>
       </c>
       <c r="D2152">
-        <v>110.222773</v>
+        <v>108.1445667041942</v>
       </c>
     </row>
     <row r="2153" spans="1:4">
@@ -31470,7 +31470,7 @@
         <v>216</v>
       </c>
       <c r="D2159">
-        <v>119.412271</v>
+        <v>120.1978780460526</v>
       </c>
     </row>
     <row r="2160" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>58.45957656038731</v>
+        <v>60.73624991782287</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>94.02271247876823</v>
+        <v>83.41251391457772</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>119.6212293862474</v>
+        <v>121.8233399622618</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>102.0146907591614</v>
+        <v>97.54895141976806</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>201.3422818791946</v>
+        <v>186.0179227941176</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31820,7 +31820,7 @@
         <v>241</v>
       </c>
       <c r="D2184">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="2185" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>115.2256156969357</v>
+        <v>113.615022418777</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>127.8967924709557</v>
+        <v>128.611333339354</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>111.0295268501947</v>
+        <v>95.27100920724264</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -31946,7 +31946,7 @@
         <v>250</v>
       </c>
       <c r="D2193">
-        <v>109.1693633595296</v>
+        <v>109.2756613529944</v>
       </c>
     </row>
     <row r="2194" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.7218984110108</v>
+        <v>100.5886521851069</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>115.8272927484043</v>
+        <v>111.8841482181983</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32142,7 +32142,7 @@
         <v>264</v>
       </c>
       <c r="D2207">
-        <v>138.3043275472018</v>
+        <v>129.5978682383138</v>
       </c>
     </row>
     <row r="2208" spans="1:4">
@@ -32156,7 +32156,7 @@
         <v>265</v>
       </c>
       <c r="D2208">
-        <v>114.326829832295</v>
+        <v>122.007372</v>
       </c>
     </row>
     <row r="2209" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>98.19965017024532</v>
+        <v>102.3325560178455</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32296,7 +32296,7 @@
         <v>275</v>
       </c>
       <c r="D2218">
-        <v>127.8651608610887</v>
+        <v>133.9061996932703</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -32380,7 +32380,7 @@
         <v>281</v>
       </c>
       <c r="D2224">
-        <v>138.8668924381953</v>
+        <v>138.7786669427582</v>
       </c>
     </row>
     <row r="2225" spans="1:4">
@@ -32394,7 +32394,7 @@
         <v>282</v>
       </c>
       <c r="D2225">
-        <v>127.5622123709128</v>
+        <v>127.643307251224</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>102.2477475876205</v>
+        <v>98.75910500998521</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -35138,7 +35138,7 @@
         <v>199</v>
       </c>
       <c r="D2421">
-        <v>131.5052756772666</v>
+        <v>131.3424121102272</v>
       </c>
     </row>
     <row r="2422" spans="1:4">
@@ -35376,7 +35376,7 @@
         <v>216</v>
       </c>
       <c r="D2438">
-        <v>111.5690000577287</v>
+        <v>112.3030066370559</v>
       </c>
     </row>
     <row r="2439" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>65.69019853908075</v>
+        <v>68.24846415881358</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>104.6066189696331</v>
+        <v>92.8020563364603</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>106.4239421846735</v>
+        <v>108.3831035294319</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>119.5825184214129</v>
+        <v>114.3477394612045</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>107.5424973415846</v>
+        <v>99.35733210561497</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35726,7 +35726,7 @@
         <v>241</v>
       </c>
       <c r="D2463">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="2464" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>118.0202173661632</v>
+        <v>115.7702590587563</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>122.4596140014555</v>
+        <v>123.5793507885725</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>102.2826995623404</v>
+        <v>87.76562674983848</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35852,7 +35852,7 @@
         <v>250</v>
       </c>
       <c r="D2472">
-        <v>103.5344232448194</v>
+        <v>103.7454412302942</v>
       </c>
     </row>
     <row r="2473" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.6282316450168</v>
+        <v>112.4722203542584</v>
       </c>
     </row>
     <row r="2476" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>104.7445950018416</v>
+        <v>101.1787421959118</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36048,7 +36048,7 @@
         <v>264</v>
       </c>
       <c r="D2486">
-        <v>117.942533</v>
+        <v>110.5178783809952</v>
       </c>
     </row>
     <row r="2487" spans="1:4">
@@ -36062,7 +36062,7 @@
         <v>265</v>
       </c>
       <c r="D2487">
-        <v>115.0782432142341</v>
+        <v>122.8092657650112</v>
       </c>
     </row>
     <row r="2488" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>92.97587129706987</v>
+        <v>95.52150970409923</v>
       </c>
     </row>
     <row r="2496" spans="1:4">
@@ -36202,7 +36202,7 @@
         <v>275</v>
       </c>
       <c r="D2497">
-        <v>129.6028978897812</v>
+        <v>135.7260367779887</v>
       </c>
     </row>
     <row r="2498" spans="1:4">
@@ -36286,7 +36286,7 @@
         <v>281</v>
       </c>
       <c r="D2503">
-        <v>126.9875332954278</v>
+        <v>126.9068550441715</v>
       </c>
     </row>
     <row r="2504" spans="1:4">
@@ -36300,7 +36300,7 @@
         <v>282</v>
       </c>
       <c r="D2504">
-        <v>145.3711224328577</v>
+        <v>145.4635389373639</v>
       </c>
     </row>
     <row r="2505" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>82.4559065827959</v>
+        <v>79.64255183152618</v>
       </c>
     </row>
     <row r="2510" spans="1:4">

--- a/IPC2024_base2010/imputacion/indprod_5_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_5_2024.xlsx
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>193.1437653811685</v>
+        <v>193.1425456926959</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>155.774071260047</v>
+        <v>155.7734226608688</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>157.3593641511809</v>
+        <v>157.3568264058626</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>240.9141015472239</v>
+        <v>240.9080809162002</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>150.5003156088055</v>
+        <v>150.5030444543971</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>359.511200623538</v>
+        <v>359.5093492961938</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>208.4070209815853</v>
+        <v>208.3998183454929</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>293.8626984143132</v>
+        <v>293.9360938295179</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>183.1918543747132</v>
+        <v>183.1881198086847</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>435.8295113120633</v>
+        <v>435.8999925651004</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>515.9124722795906</v>
+        <v>515.8987542537587</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="D53">
-        <v>133.0972411543651</v>
+        <v>133.0975930237133</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>153.3102176385175</v>
+        <v>153.2663451924862</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2182,7 +2182,7 @@
         <v>77</v>
       </c>
       <c r="D67">
-        <v>153.1242206970457</v>
+        <v>153.1551436924688</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>145.2763784157185</v>
+        <v>145.2788320193396</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>126.5337274373632</v>
+        <v>126.533797456366</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.514582373568</v>
+        <v>121.5143238621265</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.4156842530139</v>
+        <v>120.4156207628175</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3064,7 +3064,7 @@
         <v>140</v>
       </c>
       <c r="D130">
-        <v>112.8561925223952</v>
+        <v>112.8593061453139</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="D152">
-        <v>139.0008329276324</v>
+        <v>139.0009465272276</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3400,7 +3400,7 @@
         <v>164</v>
       </c>
       <c r="D154">
-        <v>140.7580912513902</v>
+        <v>140.7596464833414</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3470,7 +3470,7 @@
         <v>169</v>
       </c>
       <c r="D159">
-        <v>122.537558413563</v>
+        <v>122.5358319986594</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.9308620203854</v>
+        <v>134.933030507365</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3526,7 +3526,7 @@
         <v>173</v>
       </c>
       <c r="D163">
-        <v>138.6700889578235</v>
+        <v>138.6650026213173</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.3987730342142</v>
+        <v>137.4150126721454</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.9607492099346</v>
+        <v>126.9611870277596</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <v>185.3929722724385</v>
+        <v>185.397168187145</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>112.5213280224277</v>
+        <v>112.5126692272111</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.31745878559509</v>
+        <v>92.31811866381666</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>131.1123635633957</v>
+        <v>131.1143958371748</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>154.9069058515506</v>
+        <v>154.9133920625986</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4842,7 +4842,7 @@
         <v>267</v>
       </c>
       <c r="D257">
-        <v>130.567157467234</v>
+        <v>130.5654575003647</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>272</v>
       </c>
       <c r="D262">
-        <v>137.189572889743</v>
+        <v>137.193816989</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4982,7 +4982,7 @@
         <v>277</v>
       </c>
       <c r="D267">
-        <v>142.3829196455186</v>
+        <v>142.3832005253657</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,7 +4996,7 @@
         <v>278</v>
       </c>
       <c r="D268">
-        <v>148.376612869488</v>
+        <v>148.3762876359158</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.4061216545753</v>
+        <v>183.4023363855662</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>143.3146244018797</v>
+        <v>143.3125103692069</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5346,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="D293">
-        <v>129.3460707505322</v>
+        <v>129.340225200911</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5374,7 +5374,7 @@
         <v>26</v>
       </c>
       <c r="D295">
-        <v>173.1437009248761</v>
+        <v>173.1205892905873</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5388,7 +5388,7 @@
         <v>27</v>
       </c>
       <c r="D296">
-        <v>149.625326178816</v>
+        <v>149.6306047578079</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>155.242999716684</v>
+        <v>155.2367051516381</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>351.1198411291278</v>
+        <v>351.2712981237857</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="D301">
-        <v>198.2059145190422</v>
+        <v>198.1891826680716</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="D306">
-        <v>406.7458440930033</v>
+        <v>406.9543007223361</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>344.644946626203</v>
+        <v>344.6074792400743</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5892,7 +5892,7 @@
         <v>63</v>
       </c>
       <c r="D332">
-        <v>154.6565380899371</v>
+        <v>154.6580266425538</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>162.7312897346914</v>
+        <v>162.6211276697524</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6088,7 +6088,7 @@
         <v>77</v>
       </c>
       <c r="D346">
-        <v>153.0684312798756</v>
+        <v>153.1439939923921</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6144,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="D350">
-        <v>157.277597028185</v>
+        <v>157.2869715054232</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>130.1320394505601</v>
+        <v>130.1321909185797</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.8051404717524</v>
+        <v>121.8049131078277</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6970,7 +6970,7 @@
         <v>140</v>
       </c>
       <c r="D409">
-        <v>113.467885197943</v>
+        <v>113.4804928164788</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7278,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="D431">
-        <v>148.4070019595819</v>
+        <v>148.4073321844264</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7376,7 +7376,7 @@
         <v>169</v>
       </c>
       <c r="D438">
-        <v>114.0239697633976</v>
+        <v>114.0191936449669</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.8623625779793</v>
+        <v>144.8683265717344</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7432,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="D442">
-        <v>140.482787013643</v>
+        <v>140.4709265242394</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.6732120005297</v>
+        <v>147.7200295660203</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.5767158703476</v>
+        <v>123.5782777602328</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>178</v>
       </c>
       <c r="D447">
-        <v>206.1591286634809</v>
+        <v>206.1672068399098</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>111.896485728408</v>
+        <v>111.8918759566037</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.16753862576014</v>
+        <v>90.16925708605552</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>140.0790869669852</v>
+        <v>140.0837378321698</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>158.569388767185</v>
+        <v>158.5913849865695</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8748,7 +8748,7 @@
         <v>267</v>
       </c>
       <c r="D536">
-        <v>141.8894080721186</v>
+        <v>141.8845489927381</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8818,7 +8818,7 @@
         <v>272</v>
       </c>
       <c r="D541">
-        <v>152.0339831244796</v>
+        <v>152.0443979159513</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8888,7 +8888,7 @@
         <v>277</v>
       </c>
       <c r="D546">
-        <v>145.9281574194572</v>
+        <v>145.9287511539282</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8902,7 +8902,7 @@
         <v>278</v>
       </c>
       <c r="D547">
-        <v>148.4165684920093</v>
+        <v>148.4159223851598</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>110.4633439078746</v>
+        <v>110.4623808481347</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>110.6053704371523</v>
+        <v>110.601981939455</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>112.6264888448139</v>
+        <v>112.6158791101924</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.071627049043</v>
+        <v>119.0694290839065</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>113.4896665021278</v>
+        <v>113.4770241724436</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -24960,7 +24960,7 @@
         <v>30</v>
       </c>
       <c r="D1694">
-        <v>205.5637636480926</v>
+        <v>205.5326999647255</v>
       </c>
     </row>
     <row r="1695" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>404.2128931970612</v>
+        <v>404.2209569966484</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>137.6566214241437</v>
+        <v>137.6476926666538</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -26836,7 +26836,7 @@
         <v>164</v>
       </c>
       <c r="D1828">
-        <v>111.7358933356428</v>
+        <v>111.7493735490837</v>
       </c>
     </row>
     <row r="1829" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.2210354240491</v>
+        <v>114.2039076614239</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>114.3237520434055</v>
+        <v>114.3072594856945</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
